--- a/samples/csv_file__address__one_field/Locations.xlsx
+++ b/samples/csv_file__address__one_field/Locations.xlsx
@@ -14,22 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Icon_color</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Thumb_URL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>R</t>
   </si>
@@ -130,18 +115,12 @@
     <t>http://farm8.staticflickr.com/7074/6855416852_da59fd8a73_m.jpg</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>New York's cool new park in the sky</t>
   </si>
   <si>
     <t>http://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_b.jpg</t>
   </si>
   <si>
-    <t>Hovering above Manhattan's West Side on a formerly abandoned elevated railroad is an aerial park that has become one of New York City's top attractions.</t>
-  </si>
-  <si>
     <t>47 Little W 12th Street, New York, NY 10014</t>
   </si>
   <si>
@@ -167,6 +146,30 @@
   </si>
   <si>
     <t>509 W 29th Street, New York, NY 10001</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>icon_color</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>pic_url</t>
+  </si>
+  <si>
+    <t>thumb_url</t>
+  </si>
+  <si>
+    <t>http://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_m.jpg</t>
+  </si>
+  <si>
+    <t>Hovering above Manhattan's West Side on a formerly abandoned elevated railroad is an aerial park that has become one of New York City's top attractions. &lt;i&gt;&lt;a href="http://www.thehighline.org" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,196 +1022,202 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/samples/csv_file__address__one_field/Locations.xlsx
+++ b/samples/csv_file__address__one_field/Locations.xlsx
@@ -151,9 +151,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>caption</t>
-  </si>
-  <si>
     <t>icon_color</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Hovering above Manhattan's West Side on a formerly abandoned elevated railroad is an aerial park that has become one of New York City's top attractions. &lt;i&gt;&lt;a href="http://www.thehighline.org" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,19 +1025,19 @@
         <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1045,7 +1045,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">

--- a/samples/csv_file__address__one_field/Locations.xlsx
+++ b/samples/csv_file__address__one_field/Locations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>R</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>is_video</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,7 +1023,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1039,8 +1042,11 @@
       <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>

--- a/samples/csv_file__address__one_field/Locations.xlsx
+++ b/samples/csv_file__address__one_field/Locations.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupert\Documents\Story Maps\Story Map Tour\samples\csv_file__address__one_field\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9528" tabRatio="459"/>
   </bookViews>
@@ -25,102 +30,51 @@
     <t>The High Line's plant list includes giant pussy willow. This and other plants were blooming ahead of schedule due to an unusually mild winter.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7050/7001512467_90b130c637_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7050/7001512467_90b130c637_m.jpg</t>
-  </si>
-  <si>
     <t>Tracks</t>
   </si>
   <si>
     <t>Throughout the High Line are carefully-preserved remnants of its history as a rail corridor. Plantings and fixtures are closely integrated with tracks and cross-ties.</t>
   </si>
   <si>
-    <t>http://farm7.staticflickr.com/6214/7001517915_3a54036960_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm7.staticflickr.com/6214/7001517915_3a54036960_m.jpg</t>
-  </si>
-  <si>
     <t>Diagonal</t>
   </si>
   <si>
     <t>Concrete planks taper into planted areas; the designers' goal was to blur the edges between pavement and plantings.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7202/7001519247_2ea87a72dd_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7202/7001519247_2ea87a72dd_m.jpg</t>
-  </si>
-  <si>
     <t>10th Avenue Square</t>
   </si>
   <si>
     <t>Tenth Avenue Square is suspended directly above the street. The amphitheater-like space lets visitors descend into the structure and gaze through plate glass windows at the the traffic below.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7183/6855404766_50db8ac69e_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7183/6855404766_50db8ac69e_m.jpg</t>
-  </si>
-  <si>
     <t>Loungers</t>
   </si>
   <si>
     <t>On an early spring weekday most of the prime spots were occupied. Competition is intense on warm weekend afternoons.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7268/6855408428_e3f2592c7c_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7268/6855408428_e3f2592c7c_m.jpg</t>
-  </si>
-  <si>
     <t>Underpass</t>
   </si>
   <si>
     <t>A chic new Standard Hotel looms above the southern end of the High Line. The building is among the most visible signs of the ongoing transformation of the Meatpacking District from industrial to upscale.</t>
   </si>
   <si>
-    <t>http://farm7.staticflickr.com/6101/7001528875_6ff2350ab4_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm7.staticflickr.com/6101/7001528875_6ff2350ab4_m.jpg</t>
-  </si>
-  <si>
     <t>High Line sign</t>
   </si>
   <si>
     <t>The broadleaf symbol of the New York City Parks and Recreation Department gives evidence to the High Line's official status as a city park.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7095/6855417984_3c6aa42c0e_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7095/6855417984_3c6aa42c0e_m.jpg</t>
-  </si>
-  <si>
     <t>Goodbye</t>
   </si>
   <si>
     <t>The amateur photographer seen snapping a picture of his companion earlier in this story waves farewell at the southern terminus of the High Line.</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7074/6855416852_da59fd8a73_b.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7074/6855416852_da59fd8a73_m.jpg</t>
-  </si>
-  <si>
     <t>New York's cool new park in the sky</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_b.jpg</t>
-  </si>
-  <si>
     <t>47 Little W 12th Street, New York, NY 10014</t>
   </si>
   <si>
@@ -163,16 +117,67 @@
     <t>thumb_url</t>
   </si>
   <si>
-    <t>http://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_m.jpg</t>
-  </si>
-  <si>
-    <t>Hovering above Manhattan's West Side on a formerly abandoned elevated railroad is an aerial park that has become one of New York City's top attractions. &lt;i&gt;&lt;a href="http://www.thehighline.org" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>is_video</t>
+  </si>
+  <si>
+    <t>Hovering above Manhattan's West Side on a formerly abandoned elevated railroad is an aerial park that has become one of New York City's top attractions. &lt;i&gt;&lt;a href="https://www.thehighline.org" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7062/6855356176_f7f5801fd5_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7050/7001512467_90b130c637_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7050/7001512467_90b130c637_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm7.staticflickr.com/6214/7001517915_3a54036960_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm7.staticflickr.com/6214/7001517915_3a54036960_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7202/7001519247_2ea87a72dd_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7202/7001519247_2ea87a72dd_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7183/6855404766_50db8ac69e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7183/6855404766_50db8ac69e_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7268/6855408428_e3f2592c7c_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7268/6855408428_e3f2592c7c_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm7.staticflickr.com/6101/7001528875_6ff2350ab4_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm7.staticflickr.com/6101/7001528875_6ff2350ab4_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7095/6855417984_3c6aa42c0e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7095/6855417984_3c6aa42c0e_m.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7074/6855416852_da59fd8a73_b.jpg</t>
+  </si>
+  <si>
+    <t>https://farm8.staticflickr.com/7074/6855416852_da59fd8a73_m.jpg</t>
   </si>
 </sst>
 </file>
@@ -716,6 +721,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -763,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,7 +806,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1010,7 +1018,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,45 +1033,45 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1077,153 +1085,153 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
